--- a/AeroOval_CFD/Noise Comparison.xlsx
+++ b/AeroOval_CFD/Noise Comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EAEC81-158C-5C4F-A6EB-2F90B32609CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294CA2BA-B5B1-FB46-A404-928A1DE61AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="500" windowWidth="22260" windowHeight="16700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,32 +69,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
     <t>)</t>
-  </si>
-  <si>
-    <t>4-Spectral Analysis of Pressure at receiver-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Spectral Analysis of Pressure at receiver-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-Spectral Analysis of Pressure at receiver-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-Spectral Analysis of Pressure at receiver-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Spectral Analysis of Pressure at receiver-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
@@ -105,15 +85,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-Spectral Analysis of Pressure at receiver-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slit width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9mm-Spectral Analysis of Pressure at receiver-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mm-Spectral Analysis of Pressure at receiver-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4mm-Spectral Analysis of Pressure at receiver-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9mm-Spectral Analysis of Pressure at receiver-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mm-Spectral Analysis of Pressure at receiver-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4mm-Spectral Analysis of Pressure at receiver-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +248,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4-Spectral Analysis of Pressure at receiver-1</c:v>
+                  <c:v>9mm-Spectral Analysis of Pressure at receiver-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3241,7 +3253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7-Spectral Analysis of Pressure at receiver-1</c:v>
+                  <c:v>7mm-Spectral Analysis of Pressure at receiver-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6246,7 +6258,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22-Spectral Analysis of Pressure at receiver-1</c:v>
+                  <c:v>4mm-Spectral Analysis of Pressure at receiver-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9629,7 +9641,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4-Spectral Analysis of Pressure at receiver-2</c:v>
+                  <c:v>9mm-Spectral Analysis of Pressure at receiver-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12622,7 +12634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7-Spectral Analysis of Pressure at receiver-2</c:v>
+                  <c:v>7mm-Spectral Analysis of Pressure at receiver-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15615,7 +15627,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2-Spectral Analysis of Pressure at receiver-2</c:v>
+                  <c:v>4mm-Spectral Analysis of Pressure at receiver-2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20451,8 +20463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J494"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20473,13 +20485,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -29356,7 +29368,7 @@
   <dimension ref="A1:J492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -29376,13 +29388,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -38221,20 +38233,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="N1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="14:20">
       <c r="O1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="14:20">
       <c r="N2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -38245,27 +38257,27 @@
     </row>
     <row r="3" spans="14:20">
       <c r="O3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="14:20">
-      <c r="N4">
-        <v>4</v>
+      <c r="N4" t="s">
+        <v>11</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -38287,8 +38299,8 @@
       </c>
     </row>
     <row r="5" spans="14:20">
-      <c r="N5">
-        <v>7</v>
+      <c r="N5" t="s">
+        <v>12</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -38310,8 +38322,8 @@
       </c>
     </row>
     <row r="6" spans="14:20">
-      <c r="N6">
-        <v>2</v>
+      <c r="N6" t="s">
+        <v>13</v>
       </c>
       <c r="O6">
         <v>0</v>
